--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt16-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt16-Lrp5.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.240564</v>
+        <v>0.03397833333333333</v>
       </c>
       <c r="H2">
-        <v>0.721692</v>
+        <v>0.101935</v>
       </c>
       <c r="I2">
-        <v>0.2284086981730899</v>
+        <v>0.03987224921182536</v>
       </c>
       <c r="J2">
-        <v>0.2284086981730899</v>
+        <v>0.03987224921182535</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.267299</v>
+        <v>15.24491733333333</v>
       </c>
       <c r="N2">
-        <v>39.801897</v>
+        <v>45.73475199999999</v>
       </c>
       <c r="O2">
-        <v>0.4248136128385448</v>
+        <v>0.4831257321597052</v>
       </c>
       <c r="P2">
-        <v>0.4248136128385449</v>
+        <v>0.4831257321597052</v>
       </c>
       <c r="Q2">
-        <v>3.191634516636</v>
+        <v>0.517996882791111</v>
       </c>
       <c r="R2">
-        <v>28.724710649724</v>
+        <v>4.661971945119999</v>
       </c>
       <c r="S2">
-        <v>0.09703112427465906</v>
+        <v>0.01926330959331736</v>
       </c>
       <c r="T2">
-        <v>0.09703112427465908</v>
+        <v>0.01926330959331735</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.240564</v>
+        <v>0.03397833333333333</v>
       </c>
       <c r="H3">
-        <v>0.721692</v>
+        <v>0.101935</v>
       </c>
       <c r="I3">
-        <v>0.2284086981730899</v>
+        <v>0.03987224921182536</v>
       </c>
       <c r="J3">
-        <v>0.2284086981730899</v>
+        <v>0.03987224921182535</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>31.022496</v>
       </c>
       <c r="O3">
-        <v>0.3311093088108163</v>
+        <v>0.327710667227878</v>
       </c>
       <c r="P3">
-        <v>0.3311093088108164</v>
+        <v>0.327710667227878</v>
       </c>
       <c r="Q3">
-        <v>2.487631909248</v>
+        <v>0.35136423664</v>
       </c>
       <c r="R3">
-        <v>22.388687183232</v>
+        <v>3.16227812976</v>
       </c>
       <c r="S3">
-        <v>0.07562824617847018</v>
+        <v>0.01306656139308352</v>
       </c>
       <c r="T3">
-        <v>0.07562824617847019</v>
+        <v>0.01306656139308352</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.240564</v>
+        <v>0.03397833333333333</v>
       </c>
       <c r="H4">
-        <v>0.721692</v>
+        <v>0.101935</v>
       </c>
       <c r="I4">
-        <v>0.2284086981730899</v>
+        <v>0.03987224921182536</v>
       </c>
       <c r="J4">
-        <v>0.2284086981730899</v>
+        <v>0.03987224921182535</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.622739666666667</v>
+        <v>5.969012333333333</v>
       </c>
       <c r="N4">
-        <v>22.868219</v>
+        <v>17.907037</v>
       </c>
       <c r="O4">
-        <v>0.2440770783506388</v>
+        <v>0.1891636006124168</v>
       </c>
       <c r="P4">
-        <v>0.2440770783506388</v>
+        <v>0.1891636006124168</v>
       </c>
       <c r="Q4">
-        <v>1.833756745172</v>
+        <v>0.2028170907327778</v>
       </c>
       <c r="R4">
-        <v>16.503810706548</v>
+        <v>1.825353816595</v>
       </c>
       <c r="S4">
-        <v>0.05574932771996068</v>
+        <v>0.007542378225424484</v>
       </c>
       <c r="T4">
-        <v>0.05574932771996068</v>
+        <v>0.007542378225424483</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7475460000000002</v>
+        <v>0.7475459999999999</v>
       </c>
       <c r="H5">
         <v>2.242638</v>
       </c>
       <c r="I5">
-        <v>0.7097737345758331</v>
+        <v>0.8772160811096247</v>
       </c>
       <c r="J5">
-        <v>0.709773734575833</v>
+        <v>0.8772160811096247</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.267299</v>
+        <v>15.24491733333333</v>
       </c>
       <c r="N5">
-        <v>39.801897</v>
+        <v>45.73475199999999</v>
       </c>
       <c r="O5">
-        <v>0.4248136128385448</v>
+        <v>0.4831257321597052</v>
       </c>
       <c r="P5">
-        <v>0.4248136128385449</v>
+        <v>0.4831257321597052</v>
       </c>
       <c r="Q5">
-        <v>9.917916298254001</v>
+        <v>11.396276972864</v>
       </c>
       <c r="R5">
-        <v>89.26124668428601</v>
+        <v>102.566492755776</v>
       </c>
       <c r="S5">
-        <v>0.3015215444830661</v>
+        <v>0.4238056614483548</v>
       </c>
       <c r="T5">
-        <v>0.3015215444830661</v>
+        <v>0.4238056614483547</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.7475460000000002</v>
+        <v>0.7475459999999999</v>
       </c>
       <c r="H6">
         <v>2.242638</v>
       </c>
       <c r="I6">
-        <v>0.7097737345758331</v>
+        <v>0.8772160811096247</v>
       </c>
       <c r="J6">
-        <v>0.709773734575833</v>
+        <v>0.8772160811096247</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>31.022496</v>
       </c>
       <c r="O6">
-        <v>0.3311093088108163</v>
+        <v>0.327710667227878</v>
       </c>
       <c r="P6">
-        <v>0.3311093088108164</v>
+        <v>0.327710667227878</v>
       </c>
       <c r="Q6">
-        <v>7.730247598272001</v>
+        <v>7.730247598272</v>
       </c>
       <c r="R6">
-        <v>69.57222838444801</v>
+        <v>69.572228384448</v>
       </c>
       <c r="S6">
-        <v>0.2350126906674759</v>
+        <v>0.2874730672434594</v>
       </c>
       <c r="T6">
-        <v>0.2350126906674759</v>
+        <v>0.2874730672434594</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.7475460000000002</v>
+        <v>0.7475459999999999</v>
       </c>
       <c r="H7">
         <v>2.242638</v>
       </c>
       <c r="I7">
-        <v>0.7097737345758331</v>
+        <v>0.8772160811096247</v>
       </c>
       <c r="J7">
-        <v>0.709773734575833</v>
+        <v>0.8772160811096247</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.622739666666667</v>
+        <v>5.969012333333333</v>
       </c>
       <c r="N7">
-        <v>22.868219</v>
+        <v>17.907037</v>
       </c>
       <c r="O7">
-        <v>0.2440770783506388</v>
+        <v>0.1891636006124168</v>
       </c>
       <c r="P7">
-        <v>0.2440770783506388</v>
+        <v>0.1891636006124168</v>
       </c>
       <c r="Q7">
-        <v>5.698348546858002</v>
+        <v>4.462111293733999</v>
       </c>
       <c r="R7">
-        <v>51.28513692172201</v>
+        <v>40.159001643606</v>
       </c>
       <c r="S7">
-        <v>0.1732394994252911</v>
+        <v>0.1659373524178105</v>
       </c>
       <c r="T7">
-        <v>0.1732394994252911</v>
+        <v>0.1659373524178105</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.06510733333333334</v>
+        <v>0.07065566666666666</v>
       </c>
       <c r="H8">
-        <v>0.195322</v>
+        <v>0.211967</v>
       </c>
       <c r="I8">
-        <v>0.06181756725107701</v>
+        <v>0.08291166967854992</v>
       </c>
       <c r="J8">
-        <v>0.06181756725107701</v>
+        <v>0.0829116696785499</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.267299</v>
+        <v>15.24491733333333</v>
       </c>
       <c r="N8">
-        <v>39.801897</v>
+        <v>45.73475199999999</v>
       </c>
       <c r="O8">
-        <v>0.4248136128385448</v>
+        <v>0.4831257321597052</v>
       </c>
       <c r="P8">
-        <v>0.4248136128385449</v>
+        <v>0.4831257321597052</v>
       </c>
       <c r="Q8">
-        <v>0.863798458426</v>
+        <v>1.077139797464889</v>
       </c>
       <c r="R8">
-        <v>7.774186125833999</v>
+        <v>9.694258177183999</v>
       </c>
       <c r="S8">
-        <v>0.02626094408081973</v>
+        <v>0.04005676111803306</v>
       </c>
       <c r="T8">
-        <v>0.02626094408081974</v>
+        <v>0.04005676111803305</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.06510733333333334</v>
+        <v>0.07065566666666666</v>
       </c>
       <c r="H9">
-        <v>0.195322</v>
+        <v>0.211967</v>
       </c>
       <c r="I9">
-        <v>0.06181756725107701</v>
+        <v>0.08291166967854992</v>
       </c>
       <c r="J9">
-        <v>0.06181756725107701</v>
+        <v>0.0829116696785499</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>31.022496</v>
       </c>
       <c r="O9">
-        <v>0.3311093088108163</v>
+        <v>0.327710667227878</v>
       </c>
       <c r="P9">
-        <v>0.3311093088108164</v>
+        <v>0.327710667227878</v>
       </c>
       <c r="Q9">
-        <v>0.673263995968</v>
+        <v>0.730638378848</v>
       </c>
       <c r="R9">
-        <v>6.059375963711999</v>
+        <v>6.575745409632</v>
       </c>
       <c r="S9">
-        <v>0.02046837196487027</v>
+        <v>0.02717103859133501</v>
       </c>
       <c r="T9">
-        <v>0.02046837196487027</v>
+        <v>0.02717103859133501</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.06510733333333334</v>
+        <v>0.07065566666666666</v>
       </c>
       <c r="H10">
-        <v>0.195322</v>
+        <v>0.211967</v>
       </c>
       <c r="I10">
-        <v>0.06181756725107701</v>
+        <v>0.08291166967854992</v>
       </c>
       <c r="J10">
-        <v>0.06181756725107701</v>
+        <v>0.0829116696785499</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.622739666666667</v>
+        <v>5.969012333333333</v>
       </c>
       <c r="N10">
-        <v>22.868219</v>
+        <v>17.907037</v>
       </c>
       <c r="O10">
-        <v>0.2440770783506388</v>
+        <v>0.1891636006124168</v>
       </c>
       <c r="P10">
-        <v>0.2440770783506388</v>
+        <v>0.1891636006124168</v>
       </c>
       <c r="Q10">
-        <v>0.4962962523908889</v>
+        <v>0.4217445457532221</v>
       </c>
       <c r="R10">
-        <v>4.466666271518</v>
+        <v>3.795700911778999</v>
       </c>
       <c r="S10">
-        <v>0.01508825120538701</v>
+        <v>0.01568386996918185</v>
       </c>
       <c r="T10">
-        <v>0.01508825120538701</v>
+        <v>0.01568386996918185</v>
       </c>
     </row>
   </sheetData>
